--- a/Documentation/BillOfMaterials.xlsx
+++ b/Documentation/BillOfMaterials.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon Towell\Documents\GitHub\Capstone-Team-12\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="28400" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1875" yWindow="0" windowWidth="28395" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Control" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -285,9 +290,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -332,17 +337,17 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -353,6 +358,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -684,13 +697,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -704,7 +717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -730,23 +743,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2"/>
+    <col min="6" max="6" width="10.875" style="3"/>
     <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -775,7 +788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -803,7 +816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" s="4">
         <f>F2</f>
         <v>1.29</v>
@@ -812,7 +825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -833,7 +846,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -847,11 +860,11 @@
         <v>0.83</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F38" si="1">C5*E5</f>
+        <f t="shared" ref="F5:F39" si="1">C5*E5</f>
         <v>1.66</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -869,7 +882,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -887,7 +900,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -905,7 +918,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -923,7 +936,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -941,7 +954,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -959,415 +972,404 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="G12" s="4">
+        <f>SUM(F4:F11)</f>
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.6</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>0.46</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>33</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>35</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>0.49</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>0.51</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="G17" s="4">
-        <f>SUM(F4:F16)</f>
-        <v>33.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <f>SUM(F13:F17)</f>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>0.1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>4.13</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>4.13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="2">
         <v>0.59</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>4.2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E23" s="2">
         <v>0.1</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>75</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
-        <v>73</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>0.2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="D26" s="1"/>
-      <c r="G26" s="4">
-        <f>SUM(F18:F25)</f>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="G27" s="4">
+        <f>SUM(F19:F26)</f>
         <v>18.019999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>1.76</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>3.13</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="B29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>45</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" t="s">
-        <v>47</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>0.21</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="B31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>0.46</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="B32" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <v>0.1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>0.19</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E35" s="2">
         <v>0.1</v>
@@ -1377,15 +1379,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2">
         <v>0.1</v>
@@ -1395,45 +1397,63 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="2">
         <v>0.43</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E39" s="2">
         <v>0.1</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="G39" s="4">
-        <f>SUM(F27:F38)</f>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="4">
+        <f>SUM(F28:F39)</f>
         <v>9.9899999999999984</v>
       </c>
     </row>
@@ -1447,32 +1467,32 @@
     <hyperlink ref="D9" r:id="rId6"/>
     <hyperlink ref="D10" r:id="rId7"/>
     <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
     <hyperlink ref="D2" r:id="rId13"/>
-    <hyperlink ref="D16" r:id="rId14"/>
-    <hyperlink ref="D31" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D28" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
-    <hyperlink ref="D32" r:id="rId20"/>
-    <hyperlink ref="D33" r:id="rId21"/>
-    <hyperlink ref="D34" r:id="rId22"/>
-    <hyperlink ref="D35" r:id="rId23"/>
-    <hyperlink ref="D36" r:id="rId24"/>
-    <hyperlink ref="D37" r:id="rId25"/>
-    <hyperlink ref="D18" r:id="rId26"/>
-    <hyperlink ref="D19" r:id="rId27"/>
-    <hyperlink ref="D20" r:id="rId28"/>
-    <hyperlink ref="D22" r:id="rId29"/>
-    <hyperlink ref="D21" r:id="rId30"/>
-    <hyperlink ref="D23" r:id="rId31"/>
-    <hyperlink ref="D24" r:id="rId32"/>
-    <hyperlink ref="D25" r:id="rId33"/>
-    <hyperlink ref="D38" r:id="rId34"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D32" r:id="rId15"/>
+    <hyperlink ref="D28" r:id="rId16"/>
+    <hyperlink ref="D29" r:id="rId17"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19"/>
+    <hyperlink ref="D33" r:id="rId20"/>
+    <hyperlink ref="D34" r:id="rId21"/>
+    <hyperlink ref="D35" r:id="rId22"/>
+    <hyperlink ref="D36" r:id="rId23"/>
+    <hyperlink ref="D37" r:id="rId24"/>
+    <hyperlink ref="D38" r:id="rId25"/>
+    <hyperlink ref="D19" r:id="rId26"/>
+    <hyperlink ref="D20" r:id="rId27"/>
+    <hyperlink ref="D21" r:id="rId28"/>
+    <hyperlink ref="D23" r:id="rId29"/>
+    <hyperlink ref="D22" r:id="rId30"/>
+    <hyperlink ref="D24" r:id="rId31"/>
+    <hyperlink ref="D25" r:id="rId32"/>
+    <hyperlink ref="D26" r:id="rId33"/>
+    <hyperlink ref="D39" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Documentation/BillOfMaterials.xlsx
+++ b/Documentation/BillOfMaterials.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon Towell\Documents\GitHub\Capstone-Team-12\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="28395" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1875" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Control" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -743,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -860,7 +855,7 @@
         <v>0.83</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F39" si="1">C5*E5</f>
+        <f t="shared" ref="F5:F40" si="1">C5*E5</f>
         <v>1.66</v>
       </c>
     </row>
@@ -1073,321 +1068,310 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="4">
+      <c r="D18" s="1"/>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
         <f>SUM(F13:F17)</f>
         <v>7.78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>0.1</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <f t="shared" si="1"/>
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.13</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>4.13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2">
-        <v>0.59</v>
+        <v>4.13</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>0.59</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2">
-        <v>4.2</v>
+        <v>0.59</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2">
-        <v>0.1</v>
+        <v>4.2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>0.1</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>0.2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-      <c r="G27" s="4">
-        <f>SUM(F19:F26)</f>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="G28" s="4">
+        <f>SUM(F20:F27)</f>
         <v>18.019999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>1.76</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <f t="shared" si="1"/>
         <v>1.76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>3.13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2">
-        <v>0.81</v>
+        <v>3.13</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
-        <v>2.4300000000000002</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2">
-        <v>0.21</v>
+        <v>0.81</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2">
-        <v>0.46</v>
+        <v>0.21</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2">
         <v>0.1</v>
@@ -1399,13 +1383,13 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2">
         <v>0.1</v>
@@ -1417,43 +1401,61 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="2">
         <v>0.1</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="4">
-        <f>SUM(F28:F39)</f>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="4">
+        <f>SUM(F29:F40)</f>
         <v>9.9899999999999984</v>
       </c>
     </row>
@@ -1473,29 +1475,29 @@
     <hyperlink ref="D16" r:id="rId12"/>
     <hyperlink ref="D2" r:id="rId13"/>
     <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D32" r:id="rId15"/>
-    <hyperlink ref="D28" r:id="rId16"/>
-    <hyperlink ref="D29" r:id="rId17"/>
-    <hyperlink ref="D30" r:id="rId18"/>
-    <hyperlink ref="D31" r:id="rId19"/>
-    <hyperlink ref="D33" r:id="rId20"/>
-    <hyperlink ref="D34" r:id="rId21"/>
-    <hyperlink ref="D35" r:id="rId22"/>
-    <hyperlink ref="D36" r:id="rId23"/>
-    <hyperlink ref="D37" r:id="rId24"/>
-    <hyperlink ref="D38" r:id="rId25"/>
-    <hyperlink ref="D19" r:id="rId26"/>
-    <hyperlink ref="D20" r:id="rId27"/>
-    <hyperlink ref="D21" r:id="rId28"/>
-    <hyperlink ref="D23" r:id="rId29"/>
-    <hyperlink ref="D22" r:id="rId30"/>
-    <hyperlink ref="D24" r:id="rId31"/>
-    <hyperlink ref="D25" r:id="rId32"/>
-    <hyperlink ref="D26" r:id="rId33"/>
-    <hyperlink ref="D39" r:id="rId34"/>
+    <hyperlink ref="D33" r:id="rId15"/>
+    <hyperlink ref="D29" r:id="rId16"/>
+    <hyperlink ref="D30" r:id="rId17"/>
+    <hyperlink ref="D31" r:id="rId18"/>
+    <hyperlink ref="D32" r:id="rId19"/>
+    <hyperlink ref="D34" r:id="rId20"/>
+    <hyperlink ref="D35" r:id="rId21"/>
+    <hyperlink ref="D36" r:id="rId22"/>
+    <hyperlink ref="D37" r:id="rId23"/>
+    <hyperlink ref="D38" r:id="rId24"/>
+    <hyperlink ref="D39" r:id="rId25"/>
+    <hyperlink ref="D20" r:id="rId26"/>
+    <hyperlink ref="D21" r:id="rId27"/>
+    <hyperlink ref="D22" r:id="rId28"/>
+    <hyperlink ref="D24" r:id="rId29"/>
+    <hyperlink ref="D23" r:id="rId30"/>
+    <hyperlink ref="D25" r:id="rId31"/>
+    <hyperlink ref="D26" r:id="rId32"/>
+    <hyperlink ref="D27" r:id="rId33"/>
+    <hyperlink ref="D40" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId35"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/BillOfMaterials.xlsx
+++ b/Documentation/BillOfMaterials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>qty</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>Created Document with preliminary data</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/292KNAS-T1034Z/TK3104-ND/25212</t>
+  </si>
+  <si>
+    <t>TK3104-ND</t>
   </si>
 </sst>
 </file>
@@ -740,15 +746,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="4" max="4" width="70.75" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="2"/>
     <col min="6" max="6" width="10.875" style="3"/>
     <col min="9" max="9" width="35" customWidth="1"/>
@@ -805,7 +811,7 @@
       </c>
       <c r="H2">
         <f>SUM(G:G)</f>
-        <v>62.539999999999992</v>
+        <v>68.149999999999991</v>
       </c>
       <c r="I2" t="s">
         <v>78</v>
@@ -1068,16 +1074,27 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.61</v>
+      </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" s="4">
-        <f>SUM(F13:F17)</f>
-        <v>7.78</v>
+        <f>SUM(F13:F18)</f>
+        <v>13.39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Documentation/BillOfMaterials.xlsx
+++ b/Documentation/BillOfMaterials.xlsx
@@ -4,18 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1875" yWindow="0" windowWidth="17325" windowHeight="9450" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Control" sheetId="2" r:id="rId1"/>
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -362,9 +358,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -734,11 +727,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -747,7 +735,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,7 +794,7 @@
         <v>1.29</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2" si="0">C2*E2</f>
+        <f>C2*E2</f>
         <v>1.29</v>
       </c>
       <c r="H2">
@@ -861,7 +849,7 @@
         <v>0.83</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F40" si="1">C5*E5</f>
+        <f t="shared" ref="F5:F40" si="0">C5*E5</f>
         <v>1.66</v>
       </c>
     </row>
@@ -879,7 +867,7 @@
         <v>0.67</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.34</v>
       </c>
     </row>
@@ -897,7 +885,7 @@
         <v>0.78</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
     </row>
@@ -915,7 +903,7 @@
         <v>9.94</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.94</v>
       </c>
     </row>
@@ -933,7 +921,7 @@
         <v>2.93</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.93</v>
       </c>
     </row>
@@ -951,7 +939,7 @@
         <v>4.16</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.16</v>
       </c>
     </row>
@@ -969,7 +957,7 @@
         <v>2.75</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
     </row>
@@ -997,7 +985,7 @@
         <v>0.6</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1015,7 +1003,7 @@
         <v>0.46</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -1033,7 +1021,7 @@
         <v>0.63</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
     </row>
@@ -1051,7 +1039,7 @@
         <v>0.49</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
     </row>
@@ -1069,7 +1057,7 @@
         <v>0.51</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.04</v>
       </c>
     </row>
@@ -1087,7 +1075,7 @@
         <v>5.61</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
     </row>
@@ -1114,7 +1102,7 @@
         <v>0.1</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1132,7 +1120,7 @@
         <v>4.13</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.13</v>
       </c>
     </row>
@@ -1150,7 +1138,7 @@
         <v>0.59</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
     </row>
@@ -1168,7 +1156,7 @@
         <v>4.2</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
     </row>
@@ -1186,7 +1174,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
@@ -1204,7 +1192,7 @@
         <v>0.1</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -1222,7 +1210,7 @@
         <v>0.95</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
@@ -1240,7 +1228,7 @@
         <v>0.2</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -1268,7 +1256,7 @@
         <v>1.76</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.76</v>
       </c>
     </row>
@@ -1286,7 +1274,7 @@
         <v>3.13</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.13</v>
       </c>
     </row>
@@ -1304,7 +1292,7 @@
         <v>0.81</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -1322,7 +1310,7 @@
         <v>0.21</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
     </row>
@@ -1340,7 +1328,7 @@
         <v>0.46</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
     </row>
@@ -1358,7 +1346,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1376,7 +1364,7 @@
         <v>0.19</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
@@ -1394,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1412,7 +1400,7 @@
         <v>0.1</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1430,7 +1418,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1448,7 +1436,7 @@
         <v>0.43</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
     </row>
@@ -1466,7 +1454,7 @@
         <v>0.1</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1515,10 +1503,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId35"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>